--- a/SALT/dispersion_options.xlsx
+++ b/SALT/dispersion_options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E900A728-5072-BD40-B26B-4161424BD940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967C9E9-404C-334B-A290-BB4EA6DA8C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="5880" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{F48398BB-8BAF-EE4A-BA6F-66CAF9129789}"/>
+    <workbookView xWindow="8780" yWindow="2860" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{F48398BB-8BAF-EE4A-BA6F-66CAF9129789}"/>
   </bookViews>
   <sheets>
     <sheet name="LiCl" sheetId="1" r:id="rId1"/>
@@ -1778,42 +1778,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LiCl!$E$16:$E$20</c:f>
+              <c:f>KCl!$E$14:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8084865492570361</c:v>
+                  <c:v>1.8035865592619846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6490104139481483</c:v>
+                  <c:v>1.6683760966945431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5077469785786322</c:v>
+                  <c:v>1.5463500262472443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3821687987417972</c:v>
+                  <c:v>1.4359397234489286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2701579056510324</c:v>
+                  <c:v>1.3357952931625037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LiCl!$L$16:$L$20</c:f>
+              <c:f>KCl!$L$14:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.30481</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4436500000000101</c:v>
+                  <c:v>-4.5116129032258003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7404099999999998</c:v>
+                  <c:v>-4.5566037735849001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8465335051546399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10844,7 +10850,7 @@
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11558,11 +11564,11 @@
         <v>4.2643527447650723E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:O23" si="5">ABS(N17-$H$2)/$H$2</f>
+        <f>ABS(N17-$H$2)/$H$2</f>
         <v>5.5791320629315126E-2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O23" si="5">ABS(O17-$H$2)/$H$2</f>
         <v>3.4539616129331881E-2</v>
       </c>
     </row>
@@ -11575,7 +11581,7 @@
         <v>3.8307206399186351E-3</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:O24" si="6">(N17-$H2)^2</f>
+        <f t="shared" ref="N24" si="6">(N17-$H2)^2</f>
         <v>6.557035286480062E-3</v>
       </c>
       <c r="O24">
@@ -11627,10 +11633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E28592-7DE7-E94B-9142-77EF6FC97C10}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11638,7 +11644,7 @@
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>22</v>
       </c>
@@ -11652,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1</v>
       </c>
@@ -11675,7 +11681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -11698,7 +11704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6859.28</v>
       </c>
@@ -11741,8 +11747,14 @@
       <c r="O7">
         <v>12.2089</v>
       </c>
+      <c r="P7">
+        <v>-1357.1848849902501</v>
+      </c>
+      <c r="Q7">
+        <v>-6.7381871345029198</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>B$7*(C8/C$7)^3</f>
         <v>7415.1776920833954</v>
@@ -11786,8 +11798,14 @@
       <c r="O8">
         <v>5.1065100000000001</v>
       </c>
+      <c r="P8">
+        <v>-1358.39866690947</v>
+      </c>
+      <c r="Q8">
+        <v>-4.5116129032258003</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9">
         <f t="shared" ref="B9:B11" si="0">B$7*(C9/C$7)^3</f>
         <v>8000.3265782183971</v>
@@ -11831,8 +11849,14 @@
       <c r="O9">
         <v>1.0289200000000001</v>
       </c>
+      <c r="P9">
+        <v>-1356.1210509434</v>
+      </c>
+      <c r="Q9">
+        <v>-4.5566037735849001</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>8615.4766890217234</v>
@@ -11876,8 +11900,14 @@
       <c r="O10">
         <v>-1.5584</v>
       </c>
+      <c r="P10">
+        <v>-1354.12545927835</v>
+      </c>
+      <c r="Q10">
+        <v>-4.8465335051546399</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>9261.3780551100772</v>
@@ -11922,7 +11952,7 @@
         <v>-3.1027399999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -11963,7 +11993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6859.28</v>
       </c>
@@ -11996,8 +12026,11 @@
       <c r="K14">
         <v>12.2089</v>
       </c>
+      <c r="L14">
+        <v>-4.5</v>
+      </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15">
         <f>B$7*(C15/C$7)^3</f>
         <v>7415.1776920833954</v>
@@ -12031,6 +12064,9 @@
       <c r="K15">
         <v>5.1065100000000001</v>
       </c>
+      <c r="L15">
+        <v>-4.5116129032258003</v>
+      </c>
       <c r="M15">
         <f>(E15-E16)/(F15-F16)*(0-F16)+E16</f>
         <v>1.5525982191334322</v>
@@ -12044,7 +12080,7 @@
         <v>1.5024422882189976</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" ref="B16:B18" si="1">B$7*(C16/C$7)^3</f>
         <v>8000.3265782183971</v>
@@ -12077,6 +12113,9 @@
       </c>
       <c r="K16">
         <v>1.0289200000000001</v>
+      </c>
+      <c r="L16">
+        <v>-4.5566037735849001</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -12113,6 +12152,9 @@
       <c r="K17">
         <v>-1.5584</v>
       </c>
+      <c r="L17">
+        <v>-4.8465335051546399</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -12147,6 +12189,9 @@
       </c>
       <c r="K18">
         <v>-3.1027399999999998</v>
+      </c>
+      <c r="L18">
+        <v>-4.5</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -13232,7 +13277,7 @@
         <v>6.6349194264834525E-21</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E22" si="3">C$30/D21</f>
+        <f t="shared" ref="E21" si="3">C$30/D21</f>
         <v>1.392049184173439</v>
       </c>
       <c r="F21">
@@ -13804,7 +13849,7 @@
   <dimension ref="A2:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13944,6 +13989,12 @@
       <c r="E6">
         <v>1.4012692011498877</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.4514</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -13961,6 +14012,12 @@
       <c r="E7">
         <v>1.4470327255480024</v>
       </c>
+      <c r="F7">
+        <v>0.18</v>
+      </c>
+      <c r="G7">
+        <v>1.4798200000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -13978,6 +14035,12 @@
       <c r="E8">
         <v>1.4655005235360612</v>
       </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>1.48712</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -13995,6 +14058,12 @@
       <c r="E9">
         <v>1.5020627399825355</v>
       </c>
+      <c r="F9">
+        <v>0.41</v>
+      </c>
+      <c r="G9">
+        <v>1.5017400000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -14012,6 +14081,28 @@
       <c r="E10">
         <v>1.5024422882189976</v>
       </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <v>1.5156000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>1.5395599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.5528</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -14201,7 +14292,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26">
-        <v>3.8307206399186351E-3</v>
+        <v>3.8307206399186399E-3</v>
       </c>
       <c r="D26">
         <v>6.557035286480062E-3</v>
@@ -14260,7 +14351,7 @@
       </c>
       <c r="C32">
         <f>SUM(C26:C30)</f>
-        <v>6.5493842490946209E-3</v>
+        <v>6.5493842490946261E-3</v>
       </c>
       <c r="D32">
         <f t="shared" ref="D32:E32" si="11">SUM(D26:D30)</f>

--- a/SALT/dispersion_options.xlsx
+++ b/SALT/dispersion_options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967C9E9-404C-334B-A290-BB4EA6DA8C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEDF317-0280-7640-842F-31DACB5A1537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="2860" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{F48398BB-8BAF-EE4A-BA6F-66CAF9129789}"/>
+    <workbookView xWindow="8780" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{F48398BB-8BAF-EE4A-BA6F-66CAF9129789}"/>
   </bookViews>
   <sheets>
     <sheet name="LiCl" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="LiCl80KCl" sheetId="6" r:id="rId5"/>
     <sheet name="summary" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="50">
   <si>
     <t>LiCl dispersion options</t>
   </si>
@@ -166,18 +175,42 @@
   <si>
     <t>ABS fraction error</t>
   </si>
+  <si>
+    <t>EXPT</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,15 +233,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10847,10 +10884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0627DC5D-E8AF-1D46-AC53-7A3A735F36DF}">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10858,7 +10895,7 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>21</v>
       </c>
@@ -10875,12 +10912,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1</v>
       </c>
@@ -10903,7 +10940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -10926,7 +10963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3902.41</v>
       </c>
@@ -10976,7 +11013,7 @@
         <v>16.30481</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>B$7*(C8/C$7)^3</f>
         <v>4279.8128713989227</v>
@@ -11027,7 +11064,7 @@
         <v>3.4436500000000101</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>B$7*(C9/C$7)^3</f>
         <v>4680.7959790039058</v>
@@ -11078,7 +11115,7 @@
         <v>-3.7404099999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>B$7*(C10/C$7)^3</f>
         <v>5106.0738754272461</v>
@@ -11123,7 +11160,7 @@
         <v>-0.82327000000000095</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" ref="B11:B13" si="0">B$7*(C11/C$7)^3</f>
         <v>5556.3611132812493</v>
@@ -11168,7 +11205,7 @@
         <v>-4.6469100000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>6534.8218237304654</v>
@@ -11207,7 +11244,7 @@
         <v>-7.0507199999999903</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>7621.89453125</v>
@@ -11252,7 +11289,7 @@
         <v>-4.3236599999999896</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -11287,13 +11324,25 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3902.41</v>
       </c>
@@ -11330,7 +11379,7 @@
         <v>16.30481</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>B$7*(C17/C$7)^3</f>
         <v>4279.8128713989227</v>
@@ -11368,19 +11417,31 @@
         <v>3.4436500000000101</v>
       </c>
       <c r="M17">
-        <f>(E17-E18)/(F17-F18)*(0-F18)+E18</f>
+        <f>($E17-$E18)/(F17-F18)*(0-F18)+$E18</f>
         <v>1.5132928157375203</v>
       </c>
       <c r="N17">
-        <f>(E17-E18)/(H17-H18)*(0-H18)+E18</f>
+        <f>($E17-$E18)/(G17-G18)*(0-G18)+$E18</f>
+        <v>1.5675759848129176</v>
+      </c>
+      <c r="O17">
+        <f>($E17-$E18)/(H17-H18)*(0-H18)+$E18</f>
         <v>1.532375522761388</v>
       </c>
-      <c r="O17">
-        <f>(E18-E19)/(K18-K19)*(0-K19)+E19</f>
-        <v>1.4012692011498877</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <f>($E17-$E18)/(I17-I18)*(0-I18)+$E18</f>
+        <v>1.6489466109320776</v>
+      </c>
+      <c r="Q17">
+        <f>($E17-$E18)/(J17-J18)*(0-J18)+$E18</f>
+        <v>1.5124963870458068</v>
+      </c>
+      <c r="S17">
+        <f>($E17-$E18)/(L17-L18)*(0-L18)+$E18</f>
+        <v>1.5812963596097609</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>B$7*(C18/C$7)^3</f>
         <v>4680.7959790039058</v>
@@ -11417,8 +11478,12 @@
       <c r="L18">
         <v>-3.7404099999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <f>($E18-$E19)/(K18-K19)*(0-K19)+$E19</f>
+        <v>1.4012692011498877</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B$7*(C19/C$7)^3</f>
         <v>5106.0738754272461</v>
@@ -11453,7 +11518,7 @@
         <v>-0.82327000000000095</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" ref="B20:B21" si="3">B$7*(C20/C$7)^3</f>
         <v>5556.3611132812493</v>
@@ -11488,7 +11553,7 @@
         <v>-4.6469100000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="3"/>
         <v>6534.8218237304654</v>
@@ -11520,7 +11585,7 @@
         <v>-7.0507199999999903</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" ref="B22" si="4">B$7*(C22/C$7)^3</f>
         <v>7621.89453125</v>
@@ -11555,7 +11620,7 @@
         <v>-4.3236599999999896</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L23" t="s">
         <v>24</v>
       </c>
@@ -11565,14 +11630,14 @@
       </c>
       <c r="N23">
         <f>ABS(N17-$H$2)/$H$2</f>
-        <v>5.5791320629315126E-2</v>
+        <v>8.0044084892460773E-2</v>
       </c>
       <c r="O23">
         <f t="shared" ref="O23" si="5">ABS(O17-$H$2)/$H$2</f>
-        <v>3.4539616129331881E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>5.5791320629315126E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
         <v>42</v>
       </c>
@@ -11582,32 +11647,70 @@
       </c>
       <c r="N24">
         <f t="shared" ref="N24" si="6">(N17-$H2)^2</f>
-        <v>6.557035286480062E-3</v>
+        <v>1.3496859447251255E-2</v>
       </c>
       <c r="O24">
         <f>(O17-$H2)^2</f>
-        <v>2.5130969933504195E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <v>6.557035286480062E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>42.5</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1.5132928157375203</v>
+      </c>
+      <c r="N27">
+        <v>1.5675759848129176</v>
+      </c>
+      <c r="O27">
+        <v>1.532375522761388</v>
+      </c>
+      <c r="P27">
+        <v>1.6489466109320776</v>
+      </c>
+      <c r="Q27">
+        <v>1.5124963870458068</v>
+      </c>
+      <c r="R27">
+        <v>1.4012692011498877</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -11615,8 +11718,26 @@
         <f>100/(6.022E+23)</f>
         <v>1.6605778811026237E-22</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -11624,19 +11745,162 @@
         <f>C29*B26</f>
         <v>7.0574559946861507E-21</v>
       </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.4514</v>
+      </c>
+      <c r="P30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1.5528</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.5132928157375203</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1.5525982191334322</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1.5675759848129176</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1.5928695625887974</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.532375522761388</v>
+      </c>
+      <c r="P33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1.5323676072984078</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1.6489466109320776</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1.5655080244217043</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1.5124963870458068</v>
+      </c>
+      <c r="P35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1.6271760143757499</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="13:18" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1.4012692011498877</v>
+      </c>
+      <c r="P36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1.5024422882189976</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R29" r:id="rId1" xr:uid="{16FA370A-413A-4645-BC8C-248C3FFE35CB}"/>
+    <hyperlink ref="R30" r:id="rId2" xr:uid="{08360CDE-DBAB-8844-82C7-FC4944A255AC}"/>
+    <hyperlink ref="R31:R36" r:id="rId3" display="\\" xr:uid="{009BEE57-65E7-FD47-9B83-1FFEFC468269}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E28592-7DE7-E94B-9142-77EF6FC97C10}">
-  <dimension ref="B2:Q26"/>
+  <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11644,7 +11908,7 @@
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>22</v>
       </c>
@@ -11658,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>1</v>
       </c>
@@ -11681,7 +11945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -11704,7 +11968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6859.28</v>
       </c>
@@ -11754,7 +12018,7 @@
         <v>-6.7381871345029198</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>B$7*(C8/C$7)^3</f>
         <v>7415.1776920833954</v>
@@ -11805,7 +12069,7 @@
         <v>-4.5116129032258003</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
         <f t="shared" ref="B9:B11" si="0">B$7*(C9/C$7)^3</f>
         <v>8000.3265782183971</v>
@@ -11856,7 +12120,7 @@
         <v>-4.5566037735849001</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>8615.4766890217234</v>
@@ -11907,7 +12171,7 @@
         <v>-4.8465335051546399</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>9261.3780551100772</v>
@@ -11952,7 +12216,7 @@
         <v>-3.1027399999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -11987,13 +12251,25 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6859.28</v>
       </c>
@@ -12030,7 +12306,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15">
         <f>B$7*(C15/C$7)^3</f>
         <v>7415.1776920833954</v>
@@ -12068,19 +12344,23 @@
         <v>-4.5116129032258003</v>
       </c>
       <c r="M15">
-        <f>(E15-E16)/(F15-F16)*(0-F16)+E16</f>
+        <f>($E15-$E16)/(F15-F16)*(0-F16)+$E16</f>
         <v>1.5525982191334322</v>
       </c>
       <c r="N15">
-        <f>(E16-E17)/(H16-H17)*(0-H17)+E17</f>
-        <v>1.5323676072984078</v>
-      </c>
-      <c r="O15">
-        <f>(E16-E17)/(K16-K17)*(0-K17)+E17</f>
-        <v>1.5024422882189976</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+        <f>($E15-$E16)/(G15-G16)*(0-G16)+$E16</f>
+        <v>1.5928695625887974</v>
+      </c>
+      <c r="P15">
+        <f>($E15-$E16)/(I15-I16)*(0-I16)+$E16</f>
+        <v>1.5655080244217043</v>
+      </c>
+      <c r="Q15">
+        <f>($E15-$E16)/(J15-J16)*(0-J16)+$E16</f>
+        <v>1.6271760143757499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" ref="B16:B18" si="1">B$7*(C16/C$7)^3</f>
         <v>8000.3265782183971</v>
@@ -12117,8 +12397,16 @@
       <c r="L16">
         <v>-4.5566037735849001</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f>($E16-$E17)/(H16-H17)*(0-H17)+$E17</f>
+        <v>1.5323676072984078</v>
+      </c>
+      <c r="R16">
+        <f>($E16-$E17)/(K16-K17)*(0-K17)+$E17</f>
+        <v>1.5024422882189976</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="1"/>
         <v>8615.4766890217234</v>
@@ -12156,7 +12444,7 @@
         <v>-4.8465335051546399</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="1"/>
         <v>9261.3780551100772</v>
@@ -12194,7 +12482,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -12207,14 +12495,14 @@
       </c>
       <c r="N21">
         <f t="shared" ref="N21" si="2">(N15-$H$2)/$H$2</f>
-        <v>-1.31584187928852E-2</v>
+        <v>2.580471573209522E-2</v>
       </c>
       <c r="O21">
         <f>(O15-$H$2)/$H$2</f>
-        <v>-3.243026261012516E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>74.5</v>
       </c>
@@ -12230,19 +12518,19 @@
       </c>
       <c r="N22">
         <f t="shared" ref="N22:O22" si="3">(N15-$H$2)^2</f>
-        <v>4.1748267151207571E-4</v>
+        <v>1.605569846057557E-3</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>2.5358991358185026E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2.4111878399999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -12250,8 +12538,26 @@
         <f>100/(6.022E+23)</f>
         <v>1.6605778811026237E-22</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>13</v>
       </c>
@@ -12259,10 +12565,130 @@
         <f>C25*B22</f>
         <v>1.2371305214214546E-20</v>
       </c>
+      <c r="M26">
+        <v>1.5525982191334322</v>
+      </c>
+      <c r="N26">
+        <v>1.5928695625887974</v>
+      </c>
+      <c r="O26">
+        <v>1.5323676072984078</v>
+      </c>
+      <c r="P26">
+        <v>1.5655080244217043</v>
+      </c>
+      <c r="Q26">
+        <v>1.6271760143757499</v>
+      </c>
+      <c r="R26">
+        <v>1.5024422882189976</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.5528</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1.5525982191334322</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.5928695625887974</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.5323676072984078</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1.5655080244217043</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.6271760143757499</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1.5024422882189976</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P28" r:id="rId1" xr:uid="{1B81B41C-7D93-D543-B26D-F33D0C3CF786}"/>
+    <hyperlink ref="P29:P34" r:id="rId2" display="\\" xr:uid="{14683A0C-6B48-CD44-96DF-B62DAF46BE81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
